--- a/data/excel_doc/mgmt_id_lims.xlsx
+++ b/data/excel_doc/mgmt_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,28 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS2309050072B002</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>23950072</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MGMT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HSTQ2023090600001</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/mgmt_id_lims.xlsx
+++ b/data/excel_doc/mgmt_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309050072B002</t>
+          <t>GS2309060004B002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23950072</t>
+          <t>23960004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,7 +461,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2023090600001</t>
+          <t>HSTQ2023090600002</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/mgmt_id_lims.xlsx
+++ b/data/excel_doc/mgmt_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309060004B002</t>
+          <t>GS2309070036B002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23960004</t>
+          <t>23970030</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,7 +461,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2023090600002</t>
+          <t>HSTQ2023090800001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/mgmt_id_lims.xlsx
+++ b/data/excel_doc/mgmt_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,28 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GS2309070036B002</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>23970030</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MGMT</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>HSTQ2023090800001</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/mgmt_id_lims.xlsx
+++ b/data/excel_doc/mgmt_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,28 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS2309080092B002</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>23980092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MGMT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HSTQ2023090800004</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/mgmt_id_lims.xlsx
+++ b/data/excel_doc/mgmt_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309080092B002</t>
+          <t>GS2309110001B002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23980092</t>
+          <t>239A0001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,7 +461,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2023090800004</t>
+          <t>HSTQ2023091100001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/mgmt_id_lims.xlsx
+++ b/data/excel_doc/mgmt_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309110001B002</t>
+          <t>GS2309120057B002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>239A0001</t>
+          <t>239B0057</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,7 +461,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2023091100001</t>
+          <t>HSTQ2023091200005</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/mgmt_id_lims.xlsx
+++ b/data/excel_doc/mgmt_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309120057B002</t>
+          <t>GS2309150034B002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>239B0057</t>
+          <t>239E0034</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,7 +461,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2023091200005</t>
+          <t>HSTQ2023091500006</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/mgmt_id_lims.xlsx
+++ b/data/excel_doc/mgmt_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309150034B002</t>
+          <t>GS2309180002B002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>239E0034</t>
+          <t>239H0002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,7 +461,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2023091500006</t>
+          <t>HSTQ2023091800002</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/mgmt_id_lims.xlsx
+++ b/data/excel_doc/mgmt_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309180002B002</t>
+          <t>GS2401150005B002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>239H0002</t>
+          <t>241E0005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,7 +461,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2023091800002</t>
+          <t>HSTQ2024011500002</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/mgmt_id_lims.xlsx
+++ b/data/excel_doc/mgmt_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2401150005B002</t>
+          <t>GS2310270044B002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>241E0005</t>
+          <t>230S0044</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,7 +461,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2024011500002</t>
+          <t>HSTQ2023102700008</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/mgmt_id_lims.xlsx
+++ b/data/excel_doc/mgmt_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2310270044B002</t>
+          <t>GS2401160007B002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>230S0044</t>
+          <t>241F0007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,7 +461,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2023102700008</t>
+          <t>HSTQ2024011600004</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/mgmt_id_lims.xlsx
+++ b/data/excel_doc/mgmt_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,28 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GS2302150002B002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>232E0002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MGMT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HSTQ2024011700002</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/mgmt_id_lims.xlsx
+++ b/data/excel_doc/mgmt_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2401160007B002</t>
+          <t>GS2404290625B002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>241F0007</t>
+          <t>244U0625</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,29 +461,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2024011600004</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GS2302150002B002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>232E0002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MGMT</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>HSTQ2024011700002</t>
+          <t>HSTQ2024042900003</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/mgmt_id_lims.xlsx
+++ b/data/excel_doc/mgmt_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2404290625B002</t>
+          <t>GS2405210045B002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>244U0625</t>
+          <t>245L0045</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,7 +461,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2024042900003</t>
+          <t>HSTQ2024052100003</t>
         </is>
       </c>
     </row>
